--- a/data/kidsorderlogin.xlsx
+++ b/data/kidsorderlogin.xlsx
@@ -24,9 +24,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>a0@gmail.com</t>
-  </si>
-  <si>
     <t>asics</t>
   </si>
   <si>
@@ -34,6 +31,9 @@
   </si>
   <si>
     <t>Cameraman12$</t>
+  </si>
+  <si>
+    <t>0a@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,18 +415,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
